--- a/PWL_POS/public/template_stok.xlsx
+++ b/PWL_POS/public/template_stok.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Pemrograman_Web_Lanjut_2B_06\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC4FBF5-19F8-414B-AD06-00B86CAC113A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22213855-BA84-44D8-B101-0AB13EF36944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="3350" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template Stok" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>supplier_id</t>
   </si>
   <si>
     <t>barang_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
   </si>
   <si>
     <t>stok_tanggal</t>
@@ -384,18 +381,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,62 +407,51 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="2">
         <v>45748</v>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="2">
         <v>45749</v>
       </c>
-      <c r="E3">
+      <c r="D3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
         <v>45750</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>